--- a/Bitacora (1).xlsx
+++ b/Bitacora (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aamac\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aamac\Documents\PruebaHTML_007\Exp2_Hurtado_Hernandez_Aravena_007D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FAD7F0-58CF-4621-8C32-7AE425911B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACEAF94-7025-4013-B759-FBCD6A562EAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FCDE2450-F88F-495E-B1FA-0A36D45218BF}"/>
   </bookViews>
@@ -63,24 +63,9 @@
     <t>Geoff Hernandez</t>
   </si>
   <si>
-    <t>Realizamos la pagina responsibe para que no tenga errores</t>
-  </si>
-  <si>
-    <t>Realizamos el quienes somos sobre nuestra pagina web</t>
-  </si>
-  <si>
-    <t>Llenamos la galeria de los catalogos de los productos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Empezamos a trabajar en el sitio web </t>
   </si>
   <si>
-    <t>Empezamos a hacer el carusel de imágenes</t>
-  </si>
-  <si>
-    <t>Empezamos a buscar las imaguenes para rellenar la galeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subimos nuestro avanze al repositorio </t>
   </si>
   <si>
@@ -88,6 +73,21 @@
   </si>
   <si>
     <t xml:space="preserve">Subimos nuestro avanze nuevamente el repositoria </t>
+  </si>
+  <si>
+    <t>Le añadimos una pagina de venta ropa a nuestra pagina</t>
+  </si>
+  <si>
+    <t>Buscamos y aplicamos las imágenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creamos los furmularios </t>
+  </si>
+  <si>
+    <t>validamos los 2 formularios</t>
+  </si>
+  <si>
+    <t>Instalamos la API de google maps a nuestra pagina</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -594,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>

--- a/Bitacora (1).xlsx
+++ b/Bitacora (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aamac\Documents\PruebaHTML_007\Exp2_Hurtado_Hernandez_Aravena_007D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACEAF94-7025-4013-B759-FBCD6A562EAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B98C2E6-1559-40FF-A02E-950AB9AAD7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FCDE2450-F88F-495E-B1FA-0A36D45218BF}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{FCDE2450-F88F-495E-B1FA-0A36D45218BF}"/>
   </bookViews>
   <sheets>
     <sheet name="BitácoraExperiencia1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Equipo</t>
   </si>
@@ -54,40 +54,37 @@
     <t>Item Actividad</t>
   </si>
   <si>
-    <t>Nos reunimos con el equipo para recopilar información</t>
-  </si>
-  <si>
     <t>Benjamin aravena Geoff Hernandez  Samuel Hurtado</t>
   </si>
   <si>
     <t>Geoff Hernandez</t>
   </si>
   <si>
-    <t xml:space="preserve">Empezamos a trabajar en el sitio web </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subimos nuestro avanze al repositorio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vemos el codigo para que no tenga ningun error </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subimos nuestro avanze nuevamente el repositoria </t>
-  </si>
-  <si>
-    <t>Le añadimos una pagina de venta ropa a nuestra pagina</t>
-  </si>
-  <si>
-    <t>Buscamos y aplicamos las imágenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creamos los furmularios </t>
-  </si>
-  <si>
-    <t>validamos los 2 formularios</t>
-  </si>
-  <si>
-    <t>Instalamos la API de google maps a nuestra pagina</t>
+    <t>Nos conectamos para reunir ingormacion</t>
+  </si>
+  <si>
+    <t>implementamos django a nuestro proyecto</t>
+  </si>
+  <si>
+    <t>configuramos la base de datos</t>
+  </si>
+  <si>
+    <t>solucionamos errores</t>
+  </si>
+  <si>
+    <t>configuramos admin de django</t>
+  </si>
+  <si>
+    <t>creamos los modelos de base de datos</t>
+  </si>
+  <si>
+    <t>Nos pusimos a programar el crud</t>
+  </si>
+  <si>
+    <t>creamos formulario con boton enviar</t>
+  </si>
+  <si>
+    <t>intentamos solucionar errores</t>
   </si>
 </sst>
 </file>
@@ -456,7 +453,7 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -487,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -506,10 +503,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -520,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -528,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -539,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -550,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -561,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -572,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -583,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -594,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -605,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
